--- a/data/Pico_X_claim_data.xlsx
+++ b/data/Pico_X_claim_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H464"/>
+  <dimension ref="A1:H465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18336,40 +18336,40 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yue Shi </t>
+          <t xml:space="preserve">Soonchek Yong </t>
         </is>
       </c>
       <c r="B461" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Recruitment</t>
+          <t>NLB_AI Tech Showcase 2025</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>BU-South China</t>
+          <t>BU-Singapore</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>筛选简历和面试题目</t>
+          <t>camera deployment</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Data Processing (Preparing raw data)</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Pico X</t>
+          <t>Client Projects</t>
         </is>
       </c>
     </row>
@@ -18389,27 +18389,27 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Data Services Templates</t>
+          <t>Recruitment</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>BU-Pico BJ</t>
+          <t>BU-South China</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>和高通骁龙组讨论CJ的结案报告</t>
+          <t>筛选简历和面试题目</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>Analysis</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Data Services &amp; Standardisation</t>
+          <t>Pico X</t>
         </is>
       </c>
     </row>
@@ -18434,17 +18434,17 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>All BUs</t>
+          <t>BU-Pico BJ</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>高通小程序功能优化和整理客户内部申报材料</t>
+          <t>和高通骁龙组讨论CJ的结案报告</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>Concept Design &amp; Solution Proposal</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
@@ -18479,15 +18479,55 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
+          <t>高通小程序功能优化和整理客户内部申报材料</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Concept Design &amp; Solution Proposal</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Data Services &amp; Standardisation</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yue Shi </t>
+        </is>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Data Services Templates</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>All BUs</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
           <t>撰写进博会西门子展台数据收集方案</t>
         </is>
       </c>
-      <c r="G464" t="inlineStr">
+      <c r="G465" t="inlineStr">
         <is>
           <t>Concept Design &amp; Solution Proposal</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
+      <c r="H465" t="inlineStr">
         <is>
           <t>Data Services &amp; Standardisation</t>
         </is>
